--- a/docss/trend/germany/E_ataxy.xlsx
+++ b/docss/trend/germany/E_ataxy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="B1:E16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,13 +1721,13 @@
         <v>2000</v>
       </c>
       <c r="B2" s="9">
-        <v>3.6500395042821765E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C2" s="9">
-        <v>1.525084744207561E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D2" s="9">
-        <v>1.6322807059623301E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E2" s="9"/>
     </row>
@@ -1735,14 +1735,14 @@
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3" s="9">
-        <v>4.8149563372135162E-2</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2.395149739459157E-2</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1.028207247145474E-2</v>
+      <c r="B3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.01</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -1750,14 +1750,14 @@
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4" s="9">
-        <v>4.9789277487434447E-2</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2.371531305834651E-2</v>
-      </c>
-      <c r="D4" s="9">
-        <v>5.6904041557572782E-3</v>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D4">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -1765,14 +1765,14 @@
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5" s="9">
-        <v>3.6538093816488981E-2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2.6237331563606858E-2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>6.6892582690343261E-3</v>
+      <c r="B5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -1780,14 +1780,14 @@
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" s="9">
-        <v>4.3936415167991072E-2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2.2800054284743965E-2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2.4542834609746933E-2</v>
+      <c r="B6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -1795,14 +1795,14 @@
       <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7" s="9">
-        <v>4.9922103062272072E-2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2.6766548166051507E-2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>7.9828189918771386E-3</v>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D7">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -1810,14 +1810,14 @@
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" s="9">
-        <v>4.8990137060172856E-2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2.1484524710103869E-2</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1.7688314721453935E-2</v>
+      <c r="B8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E8" s="9"/>
     </row>
@@ -1825,14 +1825,14 @@
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9" s="9">
-        <v>4.0499788039596751E-2</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3.0674865702167153E-2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2.140530850738287E-2</v>
+      <c r="B9">
+        <v>0.04</v>
+      </c>
+      <c r="C9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -1840,14 +1840,14 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="9">
-        <v>4.5541755738668144E-2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2.4139560293406248E-2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>2.2074948530644178E-2</v>
+      <c r="B10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -1855,14 +1855,14 @@
       <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11" s="9">
-        <v>5.5448583734687418E-2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1.8570447922684252E-2</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2.4343903292901814E-2</v>
+      <c r="B11">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.4E-2</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -1870,14 +1870,14 @@
       <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12" s="9">
-        <v>4.7489084303379059E-2</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3.301406535319984E-2</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2.7796339418273419E-2</v>
+      <c r="B12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -1885,14 +1885,14 @@
       <c r="A13">
         <v>2011</v>
       </c>
-      <c r="B13" s="9">
-        <v>5.5661628255620599E-2</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2.0475483383052051E-2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>9.4260427867993712E-3</v>
+      <c r="B13">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.02</v>
+      </c>
+      <c r="D13">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -1900,14 +1900,14 @@
       <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14" s="9">
-        <v>5.0400692503899336E-2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1.9667403539642692E-2</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2.524952293606475E-2</v>
+      <c r="B14">
+        <v>0.05</v>
+      </c>
+      <c r="C14">
+        <v>0.02</v>
+      </c>
+      <c r="D14">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E14" s="9"/>
     </row>
@@ -1918,9 +1918,6 @@
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
       <c r="E16" s="8"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
